--- a/uploads/standard/负责人和綜管員角色表模板.xlsx
+++ b/uploads/standard/负责人和綜管員角色表模板.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$59</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,25 @@
   </si>
   <si>
     <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综管员</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxxxxxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰流晴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：请删除此行，角色有大区经理、综管员、部门负责人三类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -47,7 +66,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +79,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -83,10 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -370,7 +397,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -394,6 +421,25 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1"/>
     </row>
